--- a/InputData/elec/FoOMCtiL/Fraction of OM Costs that is Labor.xlsx
+++ b/InputData/elec/FoOMCtiL/Fraction of OM Costs that is Labor.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8B35D3EA77227E778A847C383754E4968C0DB8BD" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\FoOMCtiL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="FoOMCtiL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FoOMCtiL Fraction of O&amp;M Costs that is Labor</t>
   </si>
@@ -41,29 +37,35 @@
     <t>http://www.epa.gov/airmarkets/resource/docs/CoalPerform.pdf</t>
   </si>
   <si>
+    <t>Procedure:</t>
+  </si>
+  <si>
     <t>Appendix A, Page 4, Average of Col 3 (or Col 4 or Col 5- the numbers are the same)</t>
   </si>
   <si>
-    <t>Procedure:</t>
-  </si>
-  <si>
     <t>Divide "Fixed Labor Costs" by "Total Fixed O&amp;M Costs."  Using values for supercritical boilers,</t>
   </si>
   <si>
     <t>which are best representative of the type of plant that would be built going forward.</t>
   </si>
   <si>
-    <t>Frac of O&amp;M Costs</t>
-  </si>
-  <si>
     <t>Labor</t>
   </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable sets the fraction of O&amp;M costs in the electricity sector that is labor.</t>
+  </si>
+  <si>
+    <t>Frac of O&amp;M Costs (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +119,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -213,23 +215,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,23 +250,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +425,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,44 +447,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -522,25 +502,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>0.52</v>
@@ -786,6 +768,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -794,23 +785,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10F26F2D-22FA-4694-A396-2C6695156985}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB292AE5-EBE3-46EE-8486-5A52785B4DAB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A69EC3-A4EE-47AA-BBE6-3359CBB82D3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9C5014-1BE1-4180-8921-F4E4C6090EB6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFC2193-273F-40F2-8C1F-B001C3C1709C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E322DE5-A2D8-47A8-BF48-787D55467F6F}"/>
 </file>